--- a/AEMM template_OSS.xlsx
+++ b/AEMM template_OSS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{028C4D29-A84D-45DF-9ED1-B7F41ED8DD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0A69358-AD06-4C17-9B5A-6765E666E9BC}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{028C4D29-A84D-45DF-9ED1-B7F41ED8DD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10AA53C3-03FA-4FA4-BCFC-7E453A3F3091}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{A8C56899-27C8-4706-A814-ADF98FFE622C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8C56899-27C8-4706-A814-ADF98FFE622C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
@@ -13,9 +13,9 @@
     <sheet name="Instructions" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Assessment!$A$1:$F$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Assessment!$A$1:$F$57</definedName>
   </definedNames>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="221">
   <si>
     <t>Product</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Test Approach</t>
   </si>
   <si>
-    <t>Security</t>
-  </si>
-  <si>
     <t>HELPER DATA</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
   </si>
   <si>
     <t>Test Execution</t>
-  </si>
-  <si>
-    <t>Security Design</t>
   </si>
   <si>
     <t>Category</t>
@@ -1329,9 +1323,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1481,6 +1472,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1808,10 +1802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B202C39F-9DF3-44A5-9474-265877A54291}">
-  <dimension ref="A2:O54"/>
+  <dimension ref="A2:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U45" sqref="U45"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,10 +1858,10 @@
       <c r="B8" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="93"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="9" t="s">
         <v>8</v>
       </c>
@@ -1879,37 +1873,37 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="95"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="91"/>
+      <c r="B13" s="90"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="97"/>
+      <c r="B14" s="96"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="97"/>
+      <c r="B15" s="96"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -1925,10 +1919,10 @@
       <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="93"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="9" t="s">
         <v>16</v>
       </c>
@@ -1940,138 +1934,156 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="95"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="12">
-        <f>SUMIF($A$27:$A$54,A19,C$27:C$54)/COUNTIFS($A$27:$A$54,A19)</f>
+        <f>SUMIF($A$26:$A$52,A19,C$26:C$52)/COUNTIFS($A$26:$A$52,A19)</f>
         <v>0</v>
       </c>
       <c r="D19" s="12">
-        <f>SUMIF($A$27:$A$54,A19,D$27:D$54)/COUNTIFS($A$27:$A$54,A19)</f>
+        <f>SUMIF($A$26:$A$52,A19,D$26:D$52)/COUNTIFS($A$26:$A$52,A19)</f>
         <v>0</v>
       </c>
       <c r="E19" s="12">
-        <f>SUMIF($A$27:$A$54,A19,E$27:E$54)/COUNTIFS($A$27:$A$54,A19)</f>
+        <f>SUMIF($A$26:$A$52,A19,E$26:E$52)/COUNTIFS($A$26:$A$52,A19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="91"/>
+      <c r="B20" s="90"/>
       <c r="C20" s="12">
-        <f t="shared" ref="C20:C23" si="0">SUMIF($A$27:$A$54,A20,C$27:C$54)/COUNTIFS($A$27:$A$54,A20)</f>
+        <f>SUMIF($A$26:$A$52,A20,C$26:C$52)/COUNTIFS($A$26:$A$52,A20)</f>
         <v>0</v>
       </c>
       <c r="D20" s="12">
-        <f t="shared" ref="D20:D23" si="1">SUMIF($A$27:$A$54,A20,D$27:D$54)/COUNTIFS($A$27:$A$54,A20)</f>
+        <f>SUMIF($A$26:$A$52,A20,D$26:D$52)/COUNTIFS($A$26:$A$52,A20)</f>
         <v>0</v>
       </c>
       <c r="E20" s="12">
-        <f t="shared" ref="E20:E23" si="2">SUMIF($A$27:$A$54,A20,E$27:E$54)/COUNTIFS($A$27:$A$54,A20)</f>
+        <f>SUMIF($A$26:$A$52,A20,E$26:E$52)/COUNTIFS($A$26:$A$52,A20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="97"/>
+      <c r="B21" s="96"/>
       <c r="C21" s="12">
-        <f t="shared" si="0"/>
+        <f>SUMIF($A$26:$A$52,A21,C$26:C$52)/COUNTIFS($A$26:$A$52,A21)</f>
         <v>0</v>
       </c>
       <c r="D21" s="12">
-        <f t="shared" si="1"/>
+        <f>SUMIF($A$26:$A$52,A21,D$26:D$52)/COUNTIFS($A$26:$A$52,A21)</f>
         <v>0</v>
       </c>
       <c r="E21" s="12">
-        <f t="shared" si="2"/>
+        <f>SUMIF($A$26:$A$52,A21,E$26:E$52)/COUNTIFS($A$26:$A$52,A21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="97"/>
+      <c r="B22" s="96"/>
       <c r="C22" s="12">
-        <f t="shared" si="0"/>
+        <f>SUMIF($A$26:$A$52,A22,C$26:C$52)/COUNTIFS($A$26:$A$52,A22)</f>
         <v>0</v>
       </c>
       <c r="D22" s="12">
-        <f t="shared" si="1"/>
+        <f>SUMIF($A$26:$A$52,A22,D$26:D$52)/COUNTIFS($A$26:$A$52,A22)</f>
         <v>0</v>
       </c>
       <c r="E22" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="91"/>
-      <c r="C23" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <f>SUMIF($A$26:$A$52,A22,E$26:E$52)/COUNTIFS($A$26:$A$52,A22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="L25" s="87" t="s">
+      <c r="L24" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="87"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="88"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M25" s="88"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="89"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="75"/>
+      <c r="G25" s="76"/>
+      <c r="L25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25" t="s">
+        <v>18</v>
+      </c>
+      <c r="O25" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="76"/>
-      <c r="G26" s="77"/>
-      <c r="L26" t="s">
-        <v>16</v>
-      </c>
-      <c r="M26" t="s">
-        <v>17</v>
-      </c>
-      <c r="N26" t="s">
-        <v>18</v>
-      </c>
-      <c r="O26" t="s">
+      <c r="A26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>26</v>
+      </c>
+      <c r="C26" s="74">
+        <f t="shared" ref="C26:C52" si="0">IF(O26=0,0,(L26+M26+N26)/$O26)</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="74">
+        <f t="shared" ref="D26:D52" si="1">IF(O26=0,0,(M26+N26)/$O26)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="74">
+        <f t="shared" ref="E26:E52" si="2">IF(O26=0,0,N26/$O26)</f>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f>COUNTIFS(Assessment!$E:$E,"C",Assessment!$A:$A,Overview!B26)</f>
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f>COUNTIFS(Assessment!$E:$E,"W",Assessment!$A:$A,Overview!B26)</f>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f>COUNTIFS(Assessment!$E:$E,"R",Assessment!$A:$A,Overview!B26)</f>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f>COUNTIFS(Assessment!$A:$A,Overview!B26)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2081,16 +2093,16 @@
       <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="75">
-        <f t="shared" ref="C27:C53" si="3">IF(O27=0,0,(L27+M27+N27)/$O27)</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="75">
-        <f t="shared" ref="D27:D53" si="4">IF(O27=0,0,(M27+N27)/$O27)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="75">
-        <f t="shared" ref="E27:E53" si="5">IF(O27=0,0,N27/$O27)</f>
+      <c r="C27" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="74">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L27">
@@ -2117,16 +2129,16 @@
       <c r="B28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="75">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="75">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="75">
-        <f t="shared" si="5"/>
+      <c r="C28" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="74">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L28">
@@ -2153,16 +2165,16 @@
       <c r="B29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="75">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="75">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="75">
-        <f t="shared" si="5"/>
+      <c r="C29" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="74">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L29">
@@ -2179,7 +2191,7 @@
       </c>
       <c r="O29">
         <f>COUNTIFS(Assessment!$A:$A,Overview!B29)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2189,16 +2201,16 @@
       <c r="B30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="75">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="75">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="75">
-        <f t="shared" si="5"/>
+      <c r="C30" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="74">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L30">
@@ -2225,16 +2237,16 @@
       <c r="B31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="75">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="75">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="75">
-        <f t="shared" si="5"/>
+      <c r="C31" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="74">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L31">
@@ -2261,16 +2273,16 @@
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="75">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="75">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="75">
-        <f t="shared" si="5"/>
+      <c r="C32" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="74">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L32">
@@ -2287,26 +2299,26 @@
       </c>
       <c r="O32">
         <f>COUNTIFS(Assessment!$A:$A,Overview!B32)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="75">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D33" s="75">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="75">
-        <f t="shared" si="5"/>
+      <c r="C33" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="74">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L33">
@@ -2323,7 +2335,7 @@
       </c>
       <c r="O33">
         <f>COUNTIFS(Assessment!$A:$A,Overview!B33)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2333,16 +2345,16 @@
       <c r="B34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="75">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="75">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="75">
-        <f t="shared" si="5"/>
+      <c r="C34" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="74">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L34">
@@ -2369,16 +2381,16 @@
       <c r="B35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="75">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D35" s="75">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="75">
-        <f t="shared" si="5"/>
+      <c r="C35" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D35" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="74">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L35">
@@ -2405,16 +2417,16 @@
       <c r="B36" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="75">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D36" s="75">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="75">
-        <f t="shared" si="5"/>
+      <c r="C36" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D36" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="74">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L36">
@@ -2441,16 +2453,16 @@
       <c r="B37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="75">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D37" s="75">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="75">
-        <f t="shared" si="5"/>
+      <c r="C37" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D37" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="74">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L37">
@@ -2477,16 +2489,16 @@
       <c r="B38" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="75">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D38" s="75">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E38" s="75">
-        <f t="shared" si="5"/>
+      <c r="C38" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D38" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="74">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L38">
@@ -2513,16 +2525,16 @@
       <c r="B39" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="75">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D39" s="75">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="75">
-        <f t="shared" si="5"/>
+      <c r="C39" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D39" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="74">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L39">
@@ -2539,7 +2551,7 @@
       </c>
       <c r="O39">
         <f>COUNTIFS(Assessment!$A:$A,Overview!B39)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2549,16 +2561,16 @@
       <c r="B40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="75">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D40" s="75">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E40" s="75">
-        <f t="shared" si="5"/>
+      <c r="C40" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D40" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="74">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L40">
@@ -2575,7 +2587,7 @@
       </c>
       <c r="O40">
         <f>COUNTIFS(Assessment!$A:$A,Overview!B40)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -2585,16 +2597,16 @@
       <c r="B41" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="75">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D41" s="75">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="75">
-        <f t="shared" si="5"/>
+      <c r="C41" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D41" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="74">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L41">
@@ -2616,21 +2628,21 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="75">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D42" s="75">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="75">
-        <f t="shared" si="5"/>
+      <c r="C42" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="74">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L42">
@@ -2647,7 +2659,7 @@
       </c>
       <c r="O42">
         <f>COUNTIFS(Assessment!$A:$A,Overview!B42)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -2657,16 +2669,16 @@
       <c r="B43" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="75">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D43" s="75">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="75">
-        <f t="shared" si="5"/>
+      <c r="C43" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D43" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="74">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L43">
@@ -2683,7 +2695,7 @@
       </c>
       <c r="O43">
         <f>COUNTIFS(Assessment!$A:$A,Overview!B43)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -2693,16 +2705,16 @@
       <c r="B44" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="75">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D44" s="75">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E44" s="75">
-        <f t="shared" si="5"/>
+      <c r="C44" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D44" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="74">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L44">
@@ -2719,7 +2731,7 @@
       </c>
       <c r="O44">
         <f>COUNTIFS(Assessment!$A:$A,Overview!B44)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -2729,16 +2741,16 @@
       <c r="B45" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="75">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D45" s="75">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="75">
-        <f t="shared" si="5"/>
+      <c r="C45" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D45" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="74">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L45">
@@ -2755,7 +2767,7 @@
       </c>
       <c r="O45">
         <f>COUNTIFS(Assessment!$A:$A,Overview!B45)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -2765,16 +2777,16 @@
       <c r="B46" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="75">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D46" s="75">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="75">
-        <f t="shared" si="5"/>
+      <c r="C46" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D46" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="74">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L46">
@@ -2791,7 +2803,7 @@
       </c>
       <c r="O46">
         <f>COUNTIFS(Assessment!$A:$A,Overview!B46)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -2801,16 +2813,16 @@
       <c r="B47" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="75">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D47" s="75">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E47" s="75">
-        <f t="shared" si="5"/>
+      <c r="C47" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D47" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="74">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L47">
@@ -2837,16 +2849,16 @@
       <c r="B48" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="75">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D48" s="75">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E48" s="75">
-        <f t="shared" si="5"/>
+      <c r="C48" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D48" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="74">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L48">
@@ -2873,16 +2885,16 @@
       <c r="B49" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="75">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D49" s="75">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E49" s="75">
-        <f t="shared" si="5"/>
+      <c r="C49" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D49" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="74">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L49">
@@ -2904,21 +2916,21 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="75">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D50" s="75">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E50" s="75">
-        <f t="shared" si="5"/>
+      <c r="C50" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D50" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="74">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L50">
@@ -2935,7 +2947,7 @@
       </c>
       <c r="O50">
         <f>COUNTIFS(Assessment!$A:$A,Overview!B50)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -2945,16 +2957,16 @@
       <c r="B51" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="75">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D51" s="75">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E51" s="75">
-        <f t="shared" si="5"/>
+      <c r="C51" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D51" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="74">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L51">
@@ -2981,16 +2993,16 @@
       <c r="B52" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="75">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D52" s="75">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E52" s="75">
-        <f t="shared" si="5"/>
+      <c r="C52" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D52" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="74">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L52">
@@ -3010,82 +3022,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" s="75">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D53" s="75">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E53" s="75">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <f>COUNTIFS(Assessment!$E:$E,"C",Assessment!$A:$A,Overview!B53)</f>
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <f>COUNTIFS(Assessment!$E:$E,"W",Assessment!$A:$A,Overview!B53)</f>
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <f>COUNTIFS(Assessment!$E:$E,"R",Assessment!$A:$A,Overview!B53)</f>
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <f>COUNTIFS(Assessment!$A:$A,Overview!B53)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="75">
-        <f>IF(O54=0,0,(L54+M54+N54)/$O54)</f>
-        <v>0</v>
-      </c>
-      <c r="D54" s="75">
-        <f>IF(O54=0,0,(M54+N54)/$O54)</f>
-        <v>0</v>
-      </c>
-      <c r="E54" s="75">
-        <f>IF(O54=0,0,N54/$O54)</f>
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <f>COUNTIFS(Assessment!$E:$E,"C",Assessment!$A:$A,Overview!B54)</f>
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <f>COUNTIFS(Assessment!$E:$E,"W",Assessment!$A:$A,Overview!B54)</f>
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <f>COUNTIFS(Assessment!$E:$E,"R",Assessment!$A:$A,Overview!B54)</f>
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <f>COUNTIFS(Assessment!$A:$A,Overview!B54)</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="A23:B23"/>
+  <mergeCells count="11">
+    <mergeCell ref="L24:O24"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
@@ -3097,19 +3036,7 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
   </mergeCells>
-  <conditionalFormatting sqref="C54:E54">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:E53">
+  <conditionalFormatting sqref="C26:E52">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -3121,7 +3048,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O27:O54">
+  <conditionalFormatting sqref="O26:O52">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -3133,11 +3060,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC33D77D-0629-4B6A-ADE5-E5E1832E6E32}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3153,941 +3080,1500 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="79" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="80" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="81"/>
     </row>
     <row r="3" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="60" t="s">
         <v>59</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>61</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>62</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>64</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>65</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>67</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>68</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>70</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>71</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>73</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>74</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>76</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>79</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>80</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>82</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="37" t="s">
         <v>83</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>85</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="25"/>
     </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="79" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="25" t="s">
+      <c r="B14" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="26"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="E13" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="80" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="71" t="s">
+      <c r="C14" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="82"/>
-    </row>
-    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="65" t="s">
+      <c r="D14" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="E14" s="19"/>
+      <c r="F14" s="25"/>
+    </row>
+    <row r="15" spans="1:6" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="C15" s="30" t="s">
         <v>92</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="25"/>
     </row>
-    <row r="16" spans="1:6" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:6" s="20" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>93</v>
+      <c r="B16" s="29" t="s">
+        <v>94</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="19"/>
+        <v>96</v>
+      </c>
+      <c r="E16" s="38"/>
       <c r="F16" s="25"/>
     </row>
-    <row r="17" spans="1:6" s="20" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>96</v>
+        <v>34</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>97</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="38"/>
+        <v>99</v>
+      </c>
+      <c r="E17" s="19"/>
       <c r="F17" s="25"/>
     </row>
-    <row r="18" spans="1:6" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>101</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="25"/>
     </row>
-    <row r="19" spans="1:6" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>104</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="25" t="s">
         <v>105</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>106</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="25"/>
     </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>108</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="25"/>
     </row>
-    <row r="21" spans="1:6" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="24" t="s">
         <v>111</v>
       </c>
+      <c r="C21" s="18" t="s">
+        <v>112</v>
+      </c>
       <c r="D21" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="25"/>
     </row>
-    <row r="22" spans="1:6" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="18" t="s">
         <v>114</v>
       </c>
+      <c r="B22" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>116</v>
+      </c>
       <c r="D22" s="22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="25"/>
     </row>
-    <row r="23" spans="1:6" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="25"/>
     </row>
-    <row r="24" spans="1:6" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="D24" s="22" t="s">
         <v>122</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>123</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="25"/>
     </row>
-    <row r="25" spans="1:6" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="33"/>
+    </row>
+    <row r="26" spans="1:6" s="19" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+      <c r="A26" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="25"/>
-    </row>
-    <row r="26" spans="1:6" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="30" t="s">
+      <c r="B26" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="C26" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="33"/>
-    </row>
-    <row r="27" spans="1:6" s="19" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A27" s="42" t="s">
+      <c r="D26" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="40"/>
+      <c r="F26" s="25"/>
+    </row>
+    <row r="27" spans="1:6" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="C27" s="32" t="s">
+      <c r="B27" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="C27" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="E27" s="40"/>
+      <c r="D27" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="41"/>
       <c r="F27" s="25"/>
     </row>
-    <row r="28" spans="1:6" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>132</v>
+        <v>40</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>133</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="D28" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E28" s="41"/>
+      <c r="D28" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="19"/>
       <c r="F28" s="25"/>
     </row>
-    <row r="29" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="D29" s="25" t="s">
         <v>137</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" s="25"/>
     </row>
-    <row r="30" spans="1:6" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="20" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="24" t="s">
-        <v>138</v>
+      <c r="B30" s="29" t="s">
+        <v>139</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="25"/>
     </row>
-    <row r="31" spans="1:6" s="20" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="83"/>
+      <c r="F31" s="25"/>
+    </row>
+    <row r="32" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32"/>
+    </row>
+    <row r="33" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="51"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="54"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="25"/>
-    </row>
-    <row r="32" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="B34" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="E32" s="84"/>
-      <c r="F32" s="25"/>
-    </row>
-    <row r="33" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26" t="s">
+      <c r="B35" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" s="21"/>
+      <c r="F35" s="84"/>
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="C33" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="D33" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="E33"/>
-      <c r="F33"/>
-    </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="G34" s="55"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="69" t="s">
+      <c r="B36" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" s="21"/>
+      <c r="F36" s="84"/>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="1:8" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="C35" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" s="86" t="s">
-        <v>153</v>
-      </c>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-    </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="69" t="s">
+      <c r="B38" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="D38" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="C36" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="D36" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="85"/>
-      <c r="G36"/>
-    </row>
-    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="69" t="s">
+      <c r="B39" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="C37" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="D37" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="85"/>
-      <c r="G37"/>
-    </row>
-    <row r="38" spans="1:8" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="C38" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="D38" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38"/>
-    </row>
-    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="72" t="s">
+      <c r="B40" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="D40" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="C39" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="D39" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39"/>
-    </row>
-    <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="72" t="s">
+      <c r="B41" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="C40" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="D40" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40"/>
-    </row>
-    <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="72" t="s">
+      <c r="B42" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="D42" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="E42" s="84"/>
+      <c r="F42" s="84"/>
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="C41" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="D41" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-      <c r="G41"/>
-    </row>
-    <row r="42" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="72" t="s">
+      <c r="B43" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="D43" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="E43" s="21"/>
+      <c r="F43" s="84"/>
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="C42" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="D42" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42"/>
-    </row>
-    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="72" t="s">
+      <c r="B45" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="D45" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="C43" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="D43" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="E43" s="85"/>
-      <c r="F43" s="85"/>
-      <c r="G43"/>
-    </row>
-    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="C44" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="D44" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="E44" s="21"/>
-      <c r="F44" s="85"/>
-      <c r="G44"/>
-    </row>
-    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="C45" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="D45" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="E45" s="85"/>
-      <c r="F45" s="85"/>
-      <c r="G45"/>
-    </row>
-    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="45" t="s">
-        <v>182</v>
-      </c>
-      <c r="C46" s="45" t="s">
+      <c r="B46" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="D46" s="45" t="s">
+      <c r="C46" s="44" t="s">
         <v>184</v>
+      </c>
+      <c r="D46" s="44" t="s">
+        <v>185</v>
       </c>
       <c r="E46"/>
       <c r="F46"/>
       <c r="G46"/>
     </row>
-    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="72" t="s">
+    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="C47" s="45" t="s">
+      <c r="B47" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="D47" s="45" t="s">
+      <c r="C47" s="44" t="s">
         <v>187</v>
+      </c>
+      <c r="D47" s="44" t="s">
+        <v>188</v>
       </c>
       <c r="E47"/>
       <c r="F47"/>
       <c r="G47"/>
     </row>
     <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="74" t="s">
+      <c r="A48" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="C48" s="45" t="s">
+      <c r="B48" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="D48" s="45" t="s">
+      <c r="C48" s="44" t="s">
         <v>190</v>
+      </c>
+      <c r="D48" s="44" t="s">
+        <v>191</v>
       </c>
       <c r="E48"/>
       <c r="F48"/>
       <c r="G48"/>
     </row>
-    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="74" t="s">
+    <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="C49" s="45" t="s">
+      <c r="B49" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="D49" s="45" t="s">
+      <c r="C49" s="44" t="s">
         <v>193</v>
+      </c>
+      <c r="D49" s="44" t="s">
+        <v>194</v>
       </c>
       <c r="E49"/>
       <c r="F49"/>
       <c r="G49"/>
     </row>
-    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="74" t="s">
+    <row r="50" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="C50" s="45" t="s">
+      <c r="B50" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="D50" s="45" t="s">
+      <c r="C50" s="67" t="s">
         <v>196</v>
+      </c>
+      <c r="D50" s="67" t="s">
+        <v>197</v>
       </c>
       <c r="E50"/>
       <c r="F50"/>
       <c r="G50"/>
     </row>
-    <row r="51" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="74" t="s">
+    <row r="51" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="51"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="68" t="s">
-        <v>197</v>
-      </c>
-      <c r="C51" s="68" t="s">
+      <c r="B52" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="D51" s="68" t="s">
+      <c r="C52" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="E51"/>
-      <c r="F51"/>
-      <c r="G51"/>
-    </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="B52" s="52"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="80" t="s">
-        <v>57</v>
-      </c>
+      <c r="D52" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="E52"/>
+      <c r="F52"/>
       <c r="G52"/>
-      <c r="H52" s="2"/>
-    </row>
-    <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="C53" s="50" t="s">
+    </row>
+    <row r="53" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="D53" s="50" t="s">
+      <c r="C53" s="44" t="s">
         <v>202</v>
+      </c>
+      <c r="D53" s="44" t="s">
+        <v>203</v>
       </c>
       <c r="E53"/>
       <c r="F53"/>
       <c r="G53"/>
     </row>
-    <row r="54" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="72" t="s">
+    <row r="54" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="C54" s="45" t="s">
+      <c r="B54" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="D54" s="45" t="s">
+      <c r="C54" s="44" t="s">
         <v>205</v>
+      </c>
+      <c r="D54" s="44" t="s">
+        <v>206</v>
       </c>
       <c r="E54"/>
       <c r="F54"/>
       <c r="G54"/>
     </row>
-    <row r="55" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="C55" s="45" t="s">
+    <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="C55" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="D55" s="45" t="s">
+      <c r="D55" s="44" t="s">
         <v>208</v>
       </c>
       <c r="E55"/>
       <c r="F55"/>
       <c r="G55"/>
     </row>
-    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="72" t="s">
+    <row r="56" spans="1:8" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="C56" s="45" t="s">
+      <c r="B56" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="D56" s="45" t="s">
+      <c r="C56" s="44" t="s">
         <v>210</v>
+      </c>
+      <c r="D56" s="44" t="s">
+        <v>211</v>
       </c>
       <c r="E56"/>
       <c r="F56"/>
       <c r="G56"/>
     </row>
-    <row r="57" spans="1:8" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="B57" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="C57" s="45" t="s">
+    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="D57" s="45" t="s">
+      <c r="C57" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-    </row>
-    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58" s="45" t="s">
+      <c r="D57" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="C58" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="D58" s="45" t="s">
-        <v>216</v>
-      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="97"/>
+      <c r="B58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="F58" s="21"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="97"/>
+      <c r="B59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="F59" s="21"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="97"/>
+      <c r="B60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="F60" s="21"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="97"/>
+      <c r="B61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="97"/>
+      <c r="B62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="F62" s="21"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="97"/>
+      <c r="B63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="F63" s="21"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="97"/>
+      <c r="B64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="F64" s="21"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="97"/>
+      <c r="B65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="F65" s="21"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="97"/>
+      <c r="B66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="F66" s="21"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="97"/>
+      <c r="B67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="F67" s="21"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="97"/>
+      <c r="B68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="F68" s="21"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="97"/>
+      <c r="B69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="F69" s="21"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="97"/>
+      <c r="B70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="F70" s="21"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="97"/>
+      <c r="B71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="F71" s="21"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="97"/>
+      <c r="B72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="F72" s="21"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="97"/>
+      <c r="B73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="F73" s="21"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="97"/>
+      <c r="B74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="F74" s="21"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="97"/>
+      <c r="B75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="F75" s="21"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="97"/>
+      <c r="B76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="F76" s="21"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="97"/>
+      <c r="B77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="F77" s="21"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="97"/>
+      <c r="B78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="F78" s="21"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="97"/>
+      <c r="B79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="F79" s="21"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="97"/>
+      <c r="B80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="F80" s="21"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="97"/>
+      <c r="B81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="F81" s="21"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="97"/>
+      <c r="B82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="F82" s="21"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="97"/>
+      <c r="B83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="F83" s="21"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="97"/>
+      <c r="B84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="F84" s="21"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="97"/>
+      <c r="B85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="F85" s="21"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="97"/>
+      <c r="B86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="F86" s="21"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="97"/>
+      <c r="B87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="F87" s="21"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="97"/>
+      <c r="B88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="F88" s="21"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="97"/>
+      <c r="B89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="F89" s="21"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="97"/>
+      <c r="B90" s="21"/>
+      <c r="D90" s="21"/>
+      <c r="F90" s="21"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="97"/>
+      <c r="B91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="F91" s="21"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="97"/>
+      <c r="B92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="F92" s="21"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="97"/>
+      <c r="B93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="F93" s="21"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="97"/>
+      <c r="B94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="F94" s="21"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="97"/>
+      <c r="B95" s="21"/>
+      <c r="D95" s="21"/>
+      <c r="F95" s="21"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="97"/>
+      <c r="B96" s="21"/>
+      <c r="D96" s="21"/>
+      <c r="F96" s="21"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="97"/>
+      <c r="B97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="F97" s="21"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="97"/>
+      <c r="B98" s="21"/>
+      <c r="D98" s="21"/>
+      <c r="F98" s="21"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="97"/>
+      <c r="B99" s="21"/>
+      <c r="D99" s="21"/>
+      <c r="F99" s="21"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="97"/>
+      <c r="B100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="F100" s="21"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="97"/>
+      <c r="B101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="F101" s="21"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="97"/>
+      <c r="B102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="F102" s="21"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="97"/>
+      <c r="B103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="F103" s="21"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="97"/>
+      <c r="B104" s="21"/>
+      <c r="D104" s="21"/>
+      <c r="F104" s="21"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="97"/>
+      <c r="B105" s="21"/>
+      <c r="D105" s="21"/>
+      <c r="F105" s="21"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="97"/>
+      <c r="B106" s="21"/>
+      <c r="D106" s="21"/>
+      <c r="F106" s="21"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="97"/>
+      <c r="B107" s="21"/>
+      <c r="D107" s="21"/>
+      <c r="F107" s="21"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="97"/>
+      <c r="B108" s="21"/>
+      <c r="D108" s="21"/>
+      <c r="F108" s="21"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="97"/>
+      <c r="B109" s="21"/>
+      <c r="D109" s="21"/>
+      <c r="F109" s="21"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="97"/>
+      <c r="B110" s="21"/>
+      <c r="D110" s="21"/>
+      <c r="F110" s="21"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="97"/>
+      <c r="B111" s="21"/>
+      <c r="D111" s="21"/>
+      <c r="F111" s="21"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="97"/>
+      <c r="B112" s="21"/>
+      <c r="D112" s="21"/>
+      <c r="F112" s="21"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="97"/>
+      <c r="B113" s="21"/>
+      <c r="D113" s="21"/>
+      <c r="F113" s="21"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="97"/>
+      <c r="B114" s="21"/>
+      <c r="D114" s="21"/>
+      <c r="F114" s="21"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="97"/>
+      <c r="B115" s="21"/>
+      <c r="D115" s="21"/>
+      <c r="F115" s="21"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="97"/>
+      <c r="B116" s="21"/>
+      <c r="D116" s="21"/>
+      <c r="F116" s="21"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="97"/>
+      <c r="B117" s="21"/>
+      <c r="D117" s="21"/>
+      <c r="F117" s="21"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="97"/>
+      <c r="B118" s="21"/>
+      <c r="D118" s="21"/>
+      <c r="F118" s="21"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="97"/>
+      <c r="B119" s="21"/>
+      <c r="D119" s="21"/>
+      <c r="F119" s="21"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="97"/>
+      <c r="B120" s="21"/>
+      <c r="D120" s="21"/>
+      <c r="F120" s="21"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="97"/>
+      <c r="B121" s="21"/>
+      <c r="D121" s="21"/>
+      <c r="F121" s="21"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="97"/>
+      <c r="B122" s="21"/>
+      <c r="D122" s="21"/>
+      <c r="F122" s="21"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="97"/>
+      <c r="B123" s="21"/>
+      <c r="D123" s="21"/>
+      <c r="F123" s="21"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="97"/>
+      <c r="B124" s="21"/>
+      <c r="D124" s="21"/>
+      <c r="F124" s="21"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="97"/>
+      <c r="B125" s="21"/>
+      <c r="D125" s="21"/>
+      <c r="F125" s="21"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="97"/>
+      <c r="B126" s="21"/>
+      <c r="D126" s="21"/>
+      <c r="F126" s="21"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="97"/>
+      <c r="B127" s="21"/>
+      <c r="D127" s="21"/>
+      <c r="F127" s="21"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="97"/>
+      <c r="B128" s="21"/>
+      <c r="D128" s="21"/>
+      <c r="F128" s="21"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="97"/>
+      <c r="B129" s="21"/>
+      <c r="D129" s="21"/>
+      <c r="F129" s="21"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="97"/>
+      <c r="B130" s="21"/>
+      <c r="D130" s="21"/>
+      <c r="F130" s="21"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="97"/>
+      <c r="B131" s="21"/>
+      <c r="D131" s="21"/>
+      <c r="F131" s="21"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="97"/>
+      <c r="B132" s="21"/>
+      <c r="D132" s="21"/>
+      <c r="F132" s="21"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="97"/>
+      <c r="B133" s="21"/>
+      <c r="D133" s="21"/>
+      <c r="F133" s="21"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="97"/>
+      <c r="B134" s="21"/>
+      <c r="D134" s="21"/>
+      <c r="F134" s="21"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="97"/>
+      <c r="B135" s="21"/>
+      <c r="D135" s="21"/>
+      <c r="F135" s="21"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="97"/>
+      <c r="B136" s="21"/>
+      <c r="D136" s="21"/>
+      <c r="F136" s="21"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="97"/>
+      <c r="B137" s="21"/>
+      <c r="D137" s="21"/>
+      <c r="F137" s="21"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="97"/>
+      <c r="B138" s="21"/>
+      <c r="D138" s="21"/>
+      <c r="F138" s="21"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="97"/>
+      <c r="B139" s="21"/>
+      <c r="D139" s="21"/>
+      <c r="F139" s="21"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="97"/>
+      <c r="B140" s="21"/>
+      <c r="D140" s="21"/>
+      <c r="F140" s="21"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="97"/>
+      <c r="B141" s="21"/>
+      <c r="D141" s="21"/>
+      <c r="F141" s="21"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="97"/>
+      <c r="B142" s="21"/>
+      <c r="D142" s="21"/>
+      <c r="F142" s="21"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="97"/>
+      <c r="B143" s="21"/>
+      <c r="D143" s="21"/>
+      <c r="F143" s="21"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="97"/>
+      <c r="B144" s="21"/>
+      <c r="D144" s="21"/>
+      <c r="F144" s="21"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="97"/>
+      <c r="B145" s="21"/>
+      <c r="D145" s="21"/>
+      <c r="F145" s="21"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="97"/>
+      <c r="B146" s="21"/>
+      <c r="D146" s="21"/>
+      <c r="F146" s="21"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="97"/>
+      <c r="B147" s="21"/>
+      <c r="D147" s="21"/>
+      <c r="F147" s="21"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="97"/>
+      <c r="B148" s="21"/>
+      <c r="D148" s="21"/>
+      <c r="F148" s="21"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="97"/>
+      <c r="B149" s="21"/>
+      <c r="D149" s="21"/>
+      <c r="F149" s="21"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="97"/>
+      <c r="B150" s="21"/>
+      <c r="D150" s="21"/>
+      <c r="F150" s="21"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="97"/>
+      <c r="B151" s="21"/>
+      <c r="D151" s="21"/>
+      <c r="F151" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F58" xr:uid="{310C965E-8AB2-4F89-9B84-B5CABC1B62EE}"/>
+  <autoFilter ref="A1:F57" xr:uid="{310C965E-8AB2-4F89-9B84-B5CABC1B62EE}"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E58" xr:uid="{96E24629-8E62-4870-8898-CA64BC85550C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E12 E13:E57" xr:uid="{96E24629-8E62-4870-8898-CA64BC85550C}">
       <formula1>"-,C,W,R"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4110,18 +4596,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="77" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="77" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
-        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -4131,6 +4617,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Comment xmlns="86c1bed6-c9e5-47ec-9fd1-2ac2b5811c7e" xsi:nil="true"/>
+    <TaxCatchAll xmlns="a5b06784-e610-4374-9840-a216daa176a6" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="86c1bed6-c9e5-47ec-9fd1-2ac2b5811c7e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BE7CCEDBC036C24D84EEF2F840715D00" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="01566102eacd4407264fc6afd2ba0332">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="86c1bed6-c9e5-47ec-9fd1-2ac2b5811c7e" xmlns:ns3="a5b06784-e610-4374-9840-a216daa176a6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="160da6f71cb061e480dc8d0ca5933e35" ns2:_="" ns3:_="">
     <xsd:import namespace="86c1bed6-c9e5-47ec-9fd1-2ac2b5811c7e"/>
@@ -4381,35 +4888,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Comment xmlns="86c1bed6-c9e5-47ec-9fd1-2ac2b5811c7e" xsi:nil="true"/>
-    <TaxCatchAll xmlns="a5b06784-e610-4374-9840-a216daa176a6" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="86c1bed6-c9e5-47ec-9fd1-2ac2b5811c7e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B483CE45-7B10-4133-97E9-6750A1BDC3B7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3B97166-3E4A-4EDD-9BA4-F3F1A72943CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="86c1bed6-c9e5-47ec-9fd1-2ac2b5811c7e"/>
+    <ds:schemaRef ds:uri="a5b06784-e610-4374-9840-a216daa176a6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A044EC11-FB30-4548-A702-60363AE6BF94}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A044EC11-FB30-4548-A702-60363AE6BF94}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3B97166-3E4A-4EDD-9BA4-F3F1A72943CE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B483CE45-7B10-4133-97E9-6750A1BDC3B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="86c1bed6-c9e5-47ec-9fd1-2ac2b5811c7e"/>
+    <ds:schemaRef ds:uri="a5b06784-e610-4374-9840-a216daa176a6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>